--- a/data/trans_orig/P14A02-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14A02-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9155FE4-1401-4075-882A-BE6AB9FEF912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA6CFB92-3E0D-4C81-8E81-DD4A1CF33488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{25D864D6-1710-48A7-BD44-8C1779221CE3}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8A0C4509-94FE-49AC-8E79-1B1C48E9F6E1}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="190">
   <si>
     <t>Población que recibe medicación o terapia por diabetes en 2012 (Tasa respuesta: 8,08%)</t>
   </si>
@@ -75,7 +75,7 @@
     <t>84,22%</t>
   </si>
   <si>
-    <t>34,04%</t>
+    <t>34,27%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -90,7 +90,7 @@
     <t>92,51%</t>
   </si>
   <si>
-    <t>66,99%</t>
+    <t>67,34%</t>
   </si>
   <si>
     <t>No</t>
@@ -102,7 +102,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>65,96%</t>
+    <t>65,73%</t>
   </si>
   <si>
     <t>0%</t>
@@ -114,7 +114,7 @@
     <t>7,49%</t>
   </si>
   <si>
-    <t>33,01%</t>
+    <t>32,66%</t>
   </si>
   <si>
     <t>2/10</t>
@@ -126,208 +126,214 @@
     <t>92,89%</t>
   </si>
   <si>
-    <t>81,35%</t>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>79,88%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
   </si>
   <si>
     <t>97,74%</t>
   </si>
   <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
   </si>
   <si>
     <t>2,26%</t>
   </si>
   <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
+    <t>12,63%</t>
   </si>
   <si>
     <t>2,8%</t>
   </si>
   <si>
-    <t>7,22%</t>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
   </si>
   <si>
     <t>4,12%</t>
   </si>
   <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
   </si>
   <si>
     <t>95,67%</t>
   </si>
   <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
   </si>
   <si>
     <t>96,32%</t>
   </si>
   <si>
-    <t>93,53%</t>
+    <t>93,84%</t>
   </si>
   <si>
     <t>98,03%</t>
@@ -336,19 +342,19 @@
     <t>96,02%</t>
   </si>
   <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
   </si>
   <si>
     <t>4,33%</t>
   </si>
   <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
   </si>
   <si>
     <t>3,68%</t>
@@ -357,16 +363,16 @@
     <t>1,97%</t>
   </si>
   <si>
-    <t>6,47%</t>
+    <t>6,16%</t>
   </si>
   <si>
     <t>3,98%</t>
   </si>
   <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -399,13 +405,13 @@
     <t>97,88%</t>
   </si>
   <si>
-    <t>87,96%</t>
+    <t>89,43%</t>
   </si>
   <si>
     <t>99,05%</t>
   </si>
   <si>
-    <t>94,99%</t>
+    <t>95,2%</t>
   </si>
   <si>
     <t>3,3%</t>
@@ -414,25 +420,25 @@
     <t>2,12%</t>
   </si>
   <si>
-    <t>12,04%</t>
+    <t>10,57%</t>
   </si>
   <si>
     <t>0,95%</t>
   </si>
   <si>
-    <t>5,01%</t>
+    <t>4,8%</t>
   </si>
   <si>
     <t>99,04%</t>
   </si>
   <si>
-    <t>95,1%</t>
+    <t>94,72%</t>
   </si>
   <si>
     <t>93,73%</t>
   </si>
   <si>
-    <t>85,57%</t>
+    <t>85,61%</t>
   </si>
   <si>
     <t>97,64%</t>
@@ -441,13 +447,16 @@
     <t>96,39%</t>
   </si>
   <si>
-    <t>98,66%</t>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
   </si>
   <si>
     <t>0,96%</t>
   </si>
   <si>
-    <t>4,9%</t>
+    <t>5,28%</t>
   </si>
   <si>
     <t>6,27%</t>
@@ -456,151 +465,148 @@
     <t>2,36%</t>
   </si>
   <si>
-    <t>14,43%</t>
+    <t>14,39%</t>
   </si>
   <si>
     <t>3,61%</t>
   </si>
   <si>
-    <t>1,34%</t>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
   </si>
   <si>
     <t>96,94%</t>
   </si>
   <si>
-    <t>90,67%</t>
+    <t>90,71%</t>
   </si>
   <si>
     <t>93,43%</t>
   </si>
   <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
   </si>
   <si>
     <t>95,24%</t>
   </si>
   <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
   </si>
   <si>
     <t>3,06%</t>
   </si>
   <si>
-    <t>9,33%</t>
+    <t>9,29%</t>
   </si>
   <si>
     <t>6,57%</t>
   </si>
   <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
   </si>
   <si>
     <t>4,76%</t>
   </si>
   <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
   </si>
   <si>
     <t>98,92%</t>
   </si>
   <si>
-    <t>95,15%</t>
+    <t>93,58%</t>
   </si>
   <si>
     <t>98,72%</t>
   </si>
   <si>
-    <t>93,39%</t>
+    <t>93,51%</t>
   </si>
   <si>
     <t>98,81%</t>
   </si>
   <si>
-    <t>96,09%</t>
+    <t>95,82%</t>
   </si>
   <si>
     <t>1,08%</t>
   </si>
   <si>
-    <t>4,85%</t>
+    <t>6,42%</t>
   </si>
   <si>
     <t>1,28%</t>
   </si>
   <si>
-    <t>6,61%</t>
+    <t>6,49%</t>
   </si>
   <si>
     <t>1,19%</t>
   </si>
   <si>
-    <t>3,91%</t>
+    <t>4,18%</t>
   </si>
   <si>
     <t>98,7%</t>
   </si>
   <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
   </si>
   <si>
     <t>95,96%</t>
   </si>
   <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
+    <t>93,26%</t>
   </si>
   <si>
     <t>97,33%</t>
   </si>
   <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
   </si>
   <si>
     <t>1,3%</t>
   </si>
   <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
   </si>
   <si>
     <t>4,04%</t>
   </si>
   <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
+    <t>6,74%</t>
   </si>
   <si>
     <t>2,67%</t>
   </si>
   <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
   </si>
 </sst>
 </file>
@@ -1012,7 +1018,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00AAF7AD-3DF9-4B41-AEBB-C821E8A34A3C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F7A60D4-CCEA-4AEE-931C-715CE4B4CA29}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1777,7 +1783,7 @@
         <v>80</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="M16" s="7">
         <v>178</v>
@@ -1786,13 +1792,13 @@
         <v>188513</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1807,13 +1813,13 @@
         <v>5078</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -1822,13 +1828,13 @@
         <v>3025</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M17" s="7">
         <v>8</v>
@@ -1837,13 +1843,13 @@
         <v>8103</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1911,13 +1917,13 @@
         <v>245997</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H19" s="7">
         <v>279</v>
@@ -1926,13 +1932,13 @@
         <v>295893</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M19" s="7">
         <v>505</v>
@@ -1941,13 +1947,13 @@
         <v>541890</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1962,13 +1968,13 @@
         <v>11129</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H20" s="7">
         <v>11</v>
@@ -1977,13 +1983,13 @@
         <v>11310</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M20" s="7">
         <v>21</v>
@@ -1992,13 +1998,13 @@
         <v>22439</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2054,7 +2060,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2075,7 +2081,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65F7963B-5E27-462B-BBBB-F8508F0BED2B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BB393FD-07CE-42AD-80C1-E3130A46521F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2092,7 +2098,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2202,7 +2208,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>15</v>
@@ -2217,7 +2223,7 @@
         <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>15</v>
@@ -2232,7 +2238,7 @@
         <v>13</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>15</v>
@@ -2256,7 +2262,7 @@
         <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -2271,7 +2277,7 @@
         <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -2286,7 +2292,7 @@
         <v>22</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2357,7 +2363,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>15</v>
@@ -2369,10 +2375,10 @@
         <v>45033</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -2384,10 +2390,10 @@
         <v>102144</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -2411,7 +2417,7 @@
         <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -2420,13 +2426,13 @@
         <v>977</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -2435,13 +2441,13 @@
         <v>977</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2509,10 +2515,10 @@
         <v>84855</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -2524,13 +2530,13 @@
         <v>79730</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M10" s="7">
         <v>151</v>
@@ -2539,13 +2545,13 @@
         <v>164585</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>28</v>
+        <v>136</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2560,13 +2566,13 @@
         <v>826</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="H11" s="7">
         <v>5</v>
@@ -2575,13 +2581,13 @@
         <v>5331</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="M11" s="7">
         <v>6</v>
@@ -2590,13 +2596,13 @@
         <v>6157</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>35</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2664,10 +2670,10 @@
         <v>71828</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
@@ -2679,13 +2685,13 @@
         <v>65120</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="M13" s="7">
         <v>123</v>
@@ -2694,13 +2700,13 @@
         <v>136948</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2715,13 +2721,13 @@
         <v>2264</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -2730,13 +2736,13 @@
         <v>4579</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
@@ -2745,13 +2751,13 @@
         <v>6843</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2819,10 +2825,10 @@
         <v>72042</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -2834,10 +2840,10 @@
         <v>85825</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
@@ -2849,10 +2855,10 @@
         <v>157866</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -2870,13 +2876,13 @@
         <v>783</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -2885,13 +2891,13 @@
         <v>1115</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -2900,13 +2906,13 @@
         <v>1899</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2974,13 +2980,13 @@
         <v>293843</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="H19" s="7">
         <v>246</v>
@@ -2989,13 +2995,13 @@
         <v>285176</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>175</v>
+        <v>46</v>
       </c>
       <c r="M19" s="7">
         <v>540</v>
@@ -3004,13 +3010,13 @@
         <v>579019</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3025,13 +3031,13 @@
         <v>3873</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="H20" s="7">
         <v>11</v>
@@ -3040,13 +3046,13 @@
         <v>12003</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>183</v>
+        <v>53</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M20" s="7">
         <v>15</v>
@@ -3055,13 +3061,13 @@
         <v>15876</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3117,7 +3123,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14A02-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14A02-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA6CFB92-3E0D-4C81-8E81-DD4A1CF33488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{460DB9DD-2535-4708-B510-7B1A99DDF881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8A0C4509-94FE-49AC-8E79-1B1C48E9F6E1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{56DFF5BB-8C26-4DCB-8BA4-DE54E4FA6D71}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="188">
   <si>
     <t>Población que recibe medicación o terapia por diabetes en 2012 (Tasa respuesta: 8,08%)</t>
   </si>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -75,7 +75,7 @@
     <t>84,22%</t>
   </si>
   <si>
-    <t>34,27%</t>
+    <t>34,14%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -90,7 +90,7 @@
     <t>92,51%</t>
   </si>
   <si>
-    <t>67,34%</t>
+    <t>64,84%</t>
   </si>
   <si>
     <t>No</t>
@@ -102,7 +102,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>65,73%</t>
+    <t>65,86%</t>
   </si>
   <si>
     <t>0%</t>
@@ -114,10 +114,10 @@
     <t>7,49%</t>
   </si>
   <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>2/10</t>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>95,22%</t>
@@ -126,19 +126,19 @@
     <t>92,89%</t>
   </si>
   <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
   </si>
   <si>
     <t>96,41%</t>
   </si>
   <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
   </si>
   <si>
     <t>4,78%</t>
@@ -147,40 +147,40 @@
     <t>7,11%</t>
   </si>
   <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
   </si>
   <si>
     <t>3,59%</t>
   </si>
   <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>98,27%</t>
   </si>
   <si>
-    <t>91,4%</t>
+    <t>92,94%</t>
   </si>
   <si>
     <t>97,55%</t>
   </si>
   <si>
-    <t>91,39%</t>
+    <t>92,22%</t>
   </si>
   <si>
     <t>97,87%</t>
   </si>
   <si>
-    <t>94,38%</t>
+    <t>94,23%</t>
   </si>
   <si>
     <t>99,35%</t>
@@ -189,13 +189,13 @@
     <t>1,73%</t>
   </si>
   <si>
-    <t>8,6%</t>
+    <t>7,06%</t>
   </si>
   <si>
     <t>2,45%</t>
   </si>
   <si>
-    <t>8,61%</t>
+    <t>7,78%</t>
   </si>
   <si>
     <t>2,13%</t>
@@ -204,64 +204,64 @@
     <t>0,65%</t>
   </si>
   <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>92,43%</t>
   </si>
   <si>
-    <t>79,88%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
   </si>
   <si>
     <t>95,3%</t>
   </si>
   <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
   </si>
   <si>
     <t>94,0%</t>
   </si>
   <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
   </si>
   <si>
     <t>7,57%</t>
   </si>
   <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
   </si>
   <si>
     <t>4,7%</t>
   </si>
   <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
   </si>
   <si>
     <t>6,0%</t>
   </si>
   <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -270,16 +270,13 @@
     <t>94,25%</t>
   </si>
   <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
+    <t>87,26%</t>
   </si>
   <si>
     <t>97,2%</t>
   </si>
   <si>
-    <t>92,39%</t>
+    <t>92,55%</t>
   </si>
   <si>
     <t>99,11%</t>
@@ -288,19 +285,16 @@
     <t>95,88%</t>
   </si>
   <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
   </si>
   <si>
     <t>5,75%</t>
   </si>
   <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
+    <t>12,74%</t>
   </si>
   <si>
     <t>2,8%</t>
@@ -309,76 +303,76 @@
     <t>0,89%</t>
   </si>
   <si>
-    <t>7,61%</t>
+    <t>7,45%</t>
   </si>
   <si>
     <t>4,12%</t>
   </si>
   <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
   </si>
   <si>
     <t>95,67%</t>
   </si>
   <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
   </si>
   <si>
     <t>96,32%</t>
   </si>
   <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
   </si>
   <si>
     <t>96,02%</t>
   </si>
   <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
   </si>
   <si>
     <t>4,33%</t>
   </si>
   <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
   </si>
   <si>
     <t>3,68%</t>
   </si>
   <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
   </si>
   <si>
     <t>3,98%</t>
   </si>
   <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por diabetes en 2015 (Tasa respuesta: 8,45%)</t>
+    <t>Población que recibe medicación o terapia por diabetes en 2016 (Tasa respuesta: 8,45%)</t>
   </si>
   <si>
     <t>81,26%</t>
@@ -405,166 +399,160 @@
     <t>97,88%</t>
   </si>
   <si>
-    <t>89,43%</t>
+    <t>91,24%</t>
   </si>
   <si>
     <t>99,05%</t>
   </si>
   <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
     <t>95,2%</t>
   </si>
   <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
   </si>
   <si>
     <t>4,8%</t>
   </si>
   <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
     <t>6,27%</t>
   </si>
   <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
+    <t>13,21%</t>
   </si>
   <si>
     <t>3,61%</t>
   </si>
   <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
   </si>
   <si>
     <t>96,94%</t>
   </si>
   <si>
-    <t>90,71%</t>
+    <t>90,73%</t>
   </si>
   <si>
     <t>93,43%</t>
   </si>
   <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
   </si>
   <si>
     <t>95,24%</t>
   </si>
   <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
   </si>
   <si>
     <t>3,06%</t>
   </si>
   <si>
-    <t>9,29%</t>
+    <t>9,27%</t>
   </si>
   <si>
     <t>6,57%</t>
   </si>
   <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
   </si>
   <si>
     <t>4,76%</t>
   </si>
   <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
   </si>
   <si>
     <t>98,92%</t>
   </si>
   <si>
-    <t>93,58%</t>
+    <t>93,54%</t>
   </si>
   <si>
     <t>98,72%</t>
   </si>
   <si>
-    <t>93,51%</t>
+    <t>93,49%</t>
   </si>
   <si>
     <t>98,81%</t>
   </si>
   <si>
-    <t>95,82%</t>
+    <t>96,03%</t>
   </si>
   <si>
     <t>1,08%</t>
   </si>
   <si>
-    <t>6,42%</t>
+    <t>6,46%</t>
   </si>
   <si>
     <t>1,28%</t>
   </si>
   <si>
-    <t>6,49%</t>
+    <t>6,51%</t>
   </si>
   <si>
     <t>1,19%</t>
   </si>
   <si>
-    <t>4,18%</t>
+    <t>3,97%</t>
   </si>
   <si>
     <t>98,7%</t>
   </si>
   <si>
-    <t>96,84%</t>
+    <t>96,74%</t>
   </si>
   <si>
     <t>99,62%</t>
@@ -573,16 +561,19 @@
     <t>95,96%</t>
   </si>
   <si>
-    <t>93,26%</t>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
   </si>
   <si>
     <t>97,33%</t>
   </si>
   <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
   </si>
   <si>
     <t>1,3%</t>
@@ -591,22 +582,25 @@
     <t>0,38%</t>
   </si>
   <si>
-    <t>3,16%</t>
+    <t>3,26%</t>
   </si>
   <si>
     <t>4,04%</t>
   </si>
   <si>
-    <t>6,74%</t>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
   </si>
   <si>
     <t>2,67%</t>
   </si>
   <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
   </si>
 </sst>
 </file>
@@ -1018,7 +1012,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F7A60D4-CCEA-4AEE-931C-715CE4B4CA29}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AAB7CE6-6005-430F-825B-827520717E7E}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1768,7 +1762,7 @@
         <v>77</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="H16" s="7">
         <v>101</v>
@@ -1777,13 +1771,13 @@
         <v>105210</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="M16" s="7">
         <v>178</v>
@@ -1792,13 +1786,13 @@
         <v>188513</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1813,13 +1807,13 @@
         <v>5078</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -1828,13 +1822,13 @@
         <v>3025</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="M17" s="7">
         <v>8</v>
@@ -1843,13 +1837,13 @@
         <v>8103</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1917,13 +1911,13 @@
         <v>245997</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H19" s="7">
         <v>279</v>
@@ -1932,13 +1926,13 @@
         <v>295893</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M19" s="7">
         <v>505</v>
@@ -1947,13 +1941,13 @@
         <v>541890</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1968,13 +1962,13 @@
         <v>11129</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="H20" s="7">
         <v>11</v>
@@ -1983,13 +1977,13 @@
         <v>11310</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M20" s="7">
         <v>21</v>
@@ -1998,13 +1992,13 @@
         <v>22439</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2060,7 +2054,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2081,7 +2075,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BB393FD-07CE-42AD-80C1-E3130A46521F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A4FAAE9-7EB0-42D3-AB0B-020DC71B1E74}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2098,7 +2092,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2208,7 +2202,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>15</v>
@@ -2223,7 +2217,7 @@
         <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>15</v>
@@ -2238,7 +2232,7 @@
         <v>13</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>15</v>
@@ -2262,7 +2256,7 @@
         <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -2277,7 +2271,7 @@
         <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -2292,7 +2286,7 @@
         <v>22</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2363,7 +2357,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>15</v>
@@ -2375,10 +2369,10 @@
         <v>45033</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -2390,10 +2384,10 @@
         <v>102144</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -2417,7 +2411,7 @@
         <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -2426,13 +2420,13 @@
         <v>977</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -2441,13 +2435,13 @@
         <v>977</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2515,10 +2509,10 @@
         <v>84855</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -2530,13 +2524,13 @@
         <v>79730</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>134</v>
+        <v>44</v>
       </c>
       <c r="M10" s="7">
         <v>151</v>
@@ -2545,13 +2539,13 @@
         <v>164585</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2566,13 +2560,13 @@
         <v>826</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H11" s="7">
         <v>5</v>
@@ -2581,13 +2575,13 @@
         <v>5331</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>141</v>
+        <v>51</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="M11" s="7">
         <v>6</v>
@@ -2596,13 +2590,13 @@
         <v>6157</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2670,10 +2664,10 @@
         <v>71828</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
@@ -2685,13 +2679,13 @@
         <v>65120</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="M13" s="7">
         <v>123</v>
@@ -2700,13 +2694,13 @@
         <v>136948</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2721,13 +2715,13 @@
         <v>2264</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -2736,13 +2730,13 @@
         <v>4579</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
@@ -2751,13 +2745,13 @@
         <v>6843</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2825,10 +2819,10 @@
         <v>72042</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -2840,10 +2834,10 @@
         <v>85825</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
@@ -2855,10 +2849,10 @@
         <v>157866</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -2876,13 +2870,13 @@
         <v>783</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -2891,13 +2885,13 @@
         <v>1115</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -2906,13 +2900,13 @@
         <v>1899</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2980,13 +2974,13 @@
         <v>293843</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H19" s="7">
         <v>246</v>
@@ -2995,13 +2989,13 @@
         <v>285176</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>46</v>
+        <v>175</v>
       </c>
       <c r="M19" s="7">
         <v>540</v>
@@ -3010,13 +3004,13 @@
         <v>579019</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3031,13 +3025,13 @@
         <v>3873</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H20" s="7">
         <v>11</v>
@@ -3046,13 +3040,13 @@
         <v>12003</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>53</v>
+        <v>183</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M20" s="7">
         <v>15</v>
@@ -3061,13 +3055,13 @@
         <v>15876</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3123,7 +3117,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
